--- a/trab_final/ciano.xlsx
+++ b/trab_final/ciano.xlsx
@@ -27,48 +27,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
-    <t>Chlorophyll a (ug/L)</t>
+    <t xml:space="preserve">chlorophyll_a </t>
   </si>
   <si>
-    <t>Total nitrogen (ug/L)</t>
+    <t xml:space="preserve">total_nitrogen </t>
   </si>
   <si>
-    <t>Total phosphorus (ug/L)</t>
+    <t xml:space="preserve">total_phosphorus </t>
   </si>
   <si>
-    <t>Temperature, water, degrees Celsius</t>
+    <t>temp_water_celsius</t>
   </si>
   <si>
-    <t>Dissolved oxygen, water, unfiltered, milligrams per liter</t>
+    <t>dissolved_oxigen</t>
   </si>
   <si>
-    <t>pH, water, unfiltered, field, standard units</t>
+    <t>pH_water</t>
   </si>
   <si>
-    <t>Carbon dioxide, water, unfiltered, milligrams per liter</t>
+    <t>carbon_dioxide_water</t>
   </si>
   <si>
-    <t>Total nitrogen [nitrate + nitrite + ammonia + organic-N], water, unfiltered, milligrams per liter</t>
+    <t>total_nitrogen_water</t>
   </si>
   <si>
-    <t>Nitrite, water, filtered, milligrams per liter as nitrogen</t>
+    <t>nitrite_water</t>
   </si>
   <si>
-    <t>Nitrate, water, filtered, milligrams per liter as nitrogen</t>
+    <t>nitrate_water</t>
   </si>
   <si>
-    <t>Phosphorus, water, unfiltered, milligrams per liter as phosphorus</t>
+    <t>phosphorus_water</t>
   </si>
   <si>
-    <t>Sulfate, water, filtered, milligrams per liter</t>
+    <t>sulfate_water</t>
   </si>
   <si>
-    <t>Total nitrogen [nitrate + nitrite + ammonia + organic-N], water, filtered, analytically determined, milligrams per liter</t>
-  </si>
-  <si>
-    <t>Ammonia (NH3 + NH4+), water, filtered, milligrams per liter as NH4</t>
+    <t>ammonia(NH3 + NH4+)_water</t>
   </si>
   <si>
     <t>n/a</t>
@@ -1277,12 +1274,12 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" ht="135" spans="1:14">
+    <row r="1" ht="45" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1320,10 +1317,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:14">
@@ -2340,7 +2337,7 @@
     </row>
     <row r="25" ht="15" spans="1:14">
       <c r="A25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="3">
         <v>67</v>
@@ -2824,7 +2821,7 @@
     </row>
     <row r="36" ht="15" spans="1:14">
       <c r="A36" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" s="3">
         <v>185</v>
@@ -2956,7 +2953,7 @@
     </row>
     <row r="39" ht="15" spans="1:14">
       <c r="A39" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" s="3">
         <v>128</v>
